--- a/data/houseproject1/ddd.xlsx
+++ b/data/houseproject1/ddd.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter-HP\git\datamatter\data\houseproject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE54DBC-AA27-49EB-B906-5AA1C284DB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D3205-FFEC-432E-9888-C645E027647D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D892B70-6CC5-4037-99AE-0DCAB697D82B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/data/houseproject1/ddd.xlsx
+++ b/data/houseproject1/ddd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter-HP\git\datamatter\data\houseproject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EE0068-6C1D-4181-A959-414BAB08C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47699FF-1DD4-44D8-9AD2-E65FE0A4638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3CB3AE2-3032-4B09-A976-0E8AF17BA854}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="244">
   <si>
     <t>Address</t>
   </si>
@@ -757,25 +757,24 @@
   </si>
   <si>
     <t>Evans Ford Rd</t>
-  </si>
-  <si>
-    <t>Sunset Hills Rd</t>
-  </si>
-  <si>
-    <t>Reston</t>
-  </si>
-  <si>
-    <t>Condo</t>
-  </si>
-  <si>
-    <t>NOT ACREAGE (Ref Only).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,13 +800,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1120,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E849C7-C69D-47E4-8090-428C90C2A340}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:XFD72"/>
+      <selection activeCell="D78" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +1133,7 @@
     <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
@@ -1153,7 +1155,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1191,7 +1193,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>280000</v>
       </c>
       <c r="E2">
@@ -1229,7 +1231,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>285000</v>
       </c>
       <c r="E3">
@@ -1267,7 +1269,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>359499</v>
       </c>
       <c r="E4">
@@ -1305,7 +1307,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>375000</v>
       </c>
       <c r="E5">
@@ -1343,7 +1345,7 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>325000</v>
       </c>
       <c r="E6">
@@ -1381,7 +1383,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>399000</v>
       </c>
       <c r="E7">
@@ -1419,7 +1421,7 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>399999</v>
       </c>
       <c r="E8">
@@ -1457,7 +1459,7 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>150000</v>
       </c>
       <c r="E9">
@@ -1495,7 +1497,7 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>250000</v>
       </c>
       <c r="E10">
@@ -1533,7 +1535,7 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>350000</v>
       </c>
       <c r="E11">
@@ -1571,7 +1573,7 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>209999</v>
       </c>
       <c r="E12">
@@ -1609,7 +1611,7 @@
       <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>349000</v>
       </c>
       <c r="E13">
@@ -1647,7 +1649,7 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>275000</v>
       </c>
       <c r="E14">
@@ -1685,7 +1687,7 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>299900</v>
       </c>
       <c r="E15">
@@ -1723,7 +1725,7 @@
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>335000</v>
       </c>
       <c r="E16">
@@ -1761,7 +1763,7 @@
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>299900</v>
       </c>
       <c r="E17">
@@ -1799,7 +1801,7 @@
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>223000</v>
       </c>
       <c r="E18">
@@ -1837,7 +1839,7 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>149900</v>
       </c>
       <c r="E19">
@@ -1875,7 +1877,7 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>265000</v>
       </c>
       <c r="E20">
@@ -1913,7 +1915,7 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>385000</v>
       </c>
       <c r="E21">
@@ -1951,7 +1953,7 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>378000</v>
       </c>
       <c r="E22">
@@ -1989,7 +1991,7 @@
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>199000</v>
       </c>
       <c r="E23">
@@ -2027,7 +2029,7 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>339900</v>
       </c>
       <c r="E24">
@@ -2065,7 +2067,7 @@
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>333000</v>
       </c>
       <c r="E25">
@@ -2103,7 +2105,7 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>329000</v>
       </c>
       <c r="E26">
@@ -2141,7 +2143,7 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>325000</v>
       </c>
       <c r="E27">
@@ -2179,7 +2181,7 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>399900</v>
       </c>
       <c r="E28">
@@ -2217,7 +2219,7 @@
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>375000</v>
       </c>
       <c r="E29">
@@ -2255,7 +2257,7 @@
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>300000</v>
       </c>
       <c r="E30">
@@ -2293,7 +2295,7 @@
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>299000</v>
       </c>
       <c r="E31">
@@ -2331,7 +2333,7 @@
       <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>299900</v>
       </c>
       <c r="E32">
@@ -2369,7 +2371,7 @@
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>199999</v>
       </c>
       <c r="E33">
@@ -2407,7 +2409,7 @@
       <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>199900</v>
       </c>
       <c r="E34">
@@ -2445,7 +2447,7 @@
       <c r="C35" t="s">
         <v>37</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>199900</v>
       </c>
       <c r="E35">
@@ -2483,7 +2485,7 @@
       <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>185000</v>
       </c>
       <c r="E36">
@@ -2521,7 +2523,7 @@
       <c r="C37" t="s">
         <v>37</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>164900</v>
       </c>
       <c r="E37">
@@ -2559,7 +2561,7 @@
       <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>124900</v>
       </c>
       <c r="E38">
@@ -2597,7 +2599,7 @@
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>175000</v>
       </c>
       <c r="E39">
@@ -2635,7 +2637,7 @@
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>129000</v>
       </c>
       <c r="E40">
@@ -2673,7 +2675,7 @@
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>107000</v>
       </c>
       <c r="E41">
@@ -2711,7 +2713,7 @@
       <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>74900</v>
       </c>
       <c r="E42">
@@ -2749,7 +2751,7 @@
       <c r="C43" t="s">
         <v>29</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>85000</v>
       </c>
       <c r="E43">
@@ -2787,7 +2789,7 @@
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>130000</v>
       </c>
       <c r="E44">
@@ -2825,7 +2827,7 @@
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>48000</v>
       </c>
       <c r="E45">
@@ -2863,7 +2865,7 @@
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>75000</v>
       </c>
       <c r="E46">
@@ -2901,7 +2903,7 @@
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>44900</v>
       </c>
       <c r="E47">
@@ -2939,7 +2941,7 @@
       <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>70600</v>
       </c>
       <c r="E48">
@@ -2977,7 +2979,7 @@
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>39000</v>
       </c>
       <c r="E49">
@@ -3015,7 +3017,7 @@
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>124500</v>
       </c>
       <c r="E50">
@@ -3053,7 +3055,7 @@
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>60000</v>
       </c>
       <c r="E51">
@@ -3091,7 +3093,7 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>49000</v>
       </c>
       <c r="E52">
@@ -3129,7 +3131,7 @@
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>49000</v>
       </c>
       <c r="E53">
@@ -3167,7 +3169,7 @@
       <c r="C54" t="s">
         <v>14</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>39900</v>
       </c>
       <c r="E54">
@@ -3205,7 +3207,7 @@
       <c r="C55" t="s">
         <v>37</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>160000</v>
       </c>
       <c r="E55">
@@ -3243,7 +3245,7 @@
       <c r="C56" t="s">
         <v>37</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>327750</v>
       </c>
       <c r="E56">
@@ -3281,7 +3283,7 @@
       <c r="C57" t="s">
         <v>37</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>169900</v>
       </c>
       <c r="E57">
@@ -3319,7 +3321,7 @@
       <c r="C58" t="s">
         <v>37</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>219900</v>
       </c>
       <c r="E58">
@@ -3357,7 +3359,7 @@
       <c r="C59" t="s">
         <v>37</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>100000</v>
       </c>
       <c r="E59">
@@ -3395,7 +3397,7 @@
       <c r="C60" t="s">
         <v>37</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>43000</v>
       </c>
       <c r="E60">
@@ -3433,7 +3435,7 @@
       <c r="C61" t="s">
         <v>37</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>189900</v>
       </c>
       <c r="E61">
@@ -3471,7 +3473,7 @@
       <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>299900</v>
       </c>
       <c r="E62">
@@ -3509,7 +3511,7 @@
       <c r="C63" t="s">
         <v>37</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>150000</v>
       </c>
       <c r="E63">
@@ -3547,7 +3549,7 @@
       <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>129000</v>
       </c>
       <c r="E64">
@@ -3585,7 +3587,7 @@
       <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>244900</v>
       </c>
       <c r="E65">
@@ -3623,7 +3625,7 @@
       <c r="C66" t="s">
         <v>25</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>349000</v>
       </c>
       <c r="E66">
@@ -3661,7 +3663,7 @@
       <c r="C67" t="s">
         <v>25</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>399000</v>
       </c>
       <c r="E67">
@@ -3699,7 +3701,7 @@
       <c r="C68" t="s">
         <v>25</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>250000</v>
       </c>
       <c r="E68">
@@ -3737,7 +3739,7 @@
       <c r="C69" t="s">
         <v>25</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>199900</v>
       </c>
       <c r="E69">
@@ -3775,7 +3777,7 @@
       <c r="C70" t="s">
         <v>25</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>130000</v>
       </c>
       <c r="E70">
@@ -3813,7 +3815,7 @@
       <c r="C71" t="s">
         <v>25</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>350000</v>
       </c>
       <c r="E71">
@@ -3851,7 +3853,7 @@
       <c r="C72" t="s">
         <v>37</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>59500</v>
       </c>
       <c r="E72">
@@ -3889,7 +3891,7 @@
       <c r="C73" t="s">
         <v>37</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>34900</v>
       </c>
       <c r="E73">
@@ -3927,7 +3929,7 @@
       <c r="C74" t="s">
         <v>37</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>249900</v>
       </c>
       <c r="E74">
@@ -3965,7 +3967,7 @@
       <c r="C75" t="s">
         <v>37</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>495000</v>
       </c>
       <c r="E75">
@@ -4003,7 +4005,7 @@
       <c r="C76" t="s">
         <v>37</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>245000</v>
       </c>
       <c r="E76">
@@ -4041,7 +4043,7 @@
       <c r="C77" t="s">
         <v>37</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>415000</v>
       </c>
       <c r="E77">
@@ -4079,7 +4081,7 @@
       <c r="C78" t="s">
         <v>37</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>329900</v>
       </c>
       <c r="E78">
@@ -4117,7 +4119,7 @@
       <c r="C79" t="s">
         <v>37</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>450000</v>
       </c>
       <c r="E79">
@@ -4155,7 +4157,7 @@
       <c r="C80" t="s">
         <v>37</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>190000</v>
       </c>
       <c r="E80">
@@ -4193,7 +4195,7 @@
       <c r="C81" t="s">
         <v>37</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>98500</v>
       </c>
       <c r="E81">
@@ -4231,7 +4233,7 @@
       <c r="C82" t="s">
         <v>29</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>395000</v>
       </c>
       <c r="E82">
@@ -4269,7 +4271,7 @@
       <c r="C83" t="s">
         <v>29</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>780000</v>
       </c>
       <c r="E83">
@@ -4307,7 +4309,7 @@
       <c r="C84" t="s">
         <v>29</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>600000</v>
       </c>
       <c r="E84">
@@ -4345,7 +4347,7 @@
       <c r="C85" t="s">
         <v>29</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>749000</v>
       </c>
       <c r="E85">
@@ -4383,7 +4385,7 @@
       <c r="C86" t="s">
         <v>29</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>80000</v>
       </c>
       <c r="E86">
@@ -4421,7 +4423,7 @@
       <c r="C87" t="s">
         <v>29</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>37900</v>
       </c>
       <c r="E87">
@@ -4459,7 +4461,7 @@
       <c r="C88" t="s">
         <v>29</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>29900</v>
       </c>
       <c r="E88">
@@ -4497,7 +4499,7 @@
       <c r="C89" t="s">
         <v>29</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>30000</v>
       </c>
       <c r="E89">
@@ -4535,7 +4537,7 @@
       <c r="C90" t="s">
         <v>29</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>84900</v>
       </c>
       <c r="E90">
@@ -4573,7 +4575,7 @@
       <c r="C91" t="s">
         <v>29</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>39500</v>
       </c>
       <c r="E91">
@@ -4611,7 +4613,7 @@
       <c r="C92" t="s">
         <v>29</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>29900</v>
       </c>
       <c r="E92">
@@ -4649,7 +4651,7 @@
       <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>49900</v>
       </c>
       <c r="E93">
@@ -4687,7 +4689,7 @@
       <c r="C94" t="s">
         <v>29</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>38000</v>
       </c>
       <c r="E94">
@@ -4725,7 +4727,7 @@
       <c r="C95" t="s">
         <v>29</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>2998000</v>
       </c>
       <c r="E95">
@@ -4763,7 +4765,7 @@
       <c r="C96" t="s">
         <v>29</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>445000</v>
       </c>
       <c r="E96">
@@ -4801,7 +4803,7 @@
       <c r="C97" t="s">
         <v>37</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>2875000</v>
       </c>
       <c r="E97">
@@ -4839,7 +4841,7 @@
       <c r="C98" t="s">
         <v>37</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>1500000</v>
       </c>
       <c r="E98">
@@ -4877,7 +4879,7 @@
       <c r="C99" t="s">
         <v>37</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>1850000</v>
       </c>
       <c r="E99">
@@ -4915,7 +4917,7 @@
       <c r="C100" t="s">
         <v>37</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>2875000</v>
       </c>
       <c r="E100">
@@ -4941,44 +4943,6 @@
       </c>
       <c r="L100">
         <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>244</v>
-      </c>
-      <c r="B101" t="s">
-        <v>245</v>
-      </c>
-      <c r="C101" t="s">
-        <v>37</v>
-      </c>
-      <c r="D101">
-        <v>349900</v>
-      </c>
-      <c r="E101">
-        <v>0.02</v>
-      </c>
-      <c r="F101" t="s">
-        <v>246</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>247</v>
-      </c>
-      <c r="I101">
-        <v>38.954999999999998</v>
-      </c>
-      <c r="J101">
-        <v>-77.34</v>
-      </c>
-      <c r="K101">
-        <v>12</v>
-      </c>
-      <c r="L101">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/houseproject1/ddd.xlsx
+++ b/data/houseproject1/ddd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter-HP\git\datamatter\data\houseproject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47699FF-1DD4-44D8-9AD2-E65FE0A4638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A3D44-3969-4AA8-9FDA-C84556F874D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3CB3AE2-3032-4B09-A976-0E8AF17BA854}"/>
   </bookViews>
@@ -763,9 +763,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -800,15 +802,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1124,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E849C7-C69D-47E4-8090-428C90C2A340}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="D78" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1139,7 @@
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="47.85546875" bestFit="1" customWidth="1"/>
@@ -1158,7 +1163,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1185,273 +1190,273 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1">
-        <v>280000</v>
-      </c>
-      <c r="E2">
-        <v>5.0999999999999996</v>
+        <v>34900</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I2">
-        <v>39.600999999999999</v>
+        <v>38.484999999999999</v>
       </c>
       <c r="J2">
-        <v>-78.153999999999996</v>
+        <v>-78.614999999999995</v>
       </c>
       <c r="K2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="L2">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1">
-        <v>285000</v>
-      </c>
-      <c r="E3">
-        <v>10.17</v>
+        <v>39500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G3">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="I3">
-        <v>39.296999999999997</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="J3">
-        <v>-78.635000000000005</v>
+        <v>-78.88</v>
       </c>
       <c r="K3">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1">
-        <v>359499</v>
-      </c>
-      <c r="E4">
-        <v>5.0999999999999996</v>
+        <v>29900</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.2</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G4">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="I4">
-        <v>39.554000000000002</v>
+        <v>39.524999999999999</v>
       </c>
       <c r="J4">
-        <v>-78.012</v>
+        <v>-78.885000000000005</v>
       </c>
       <c r="K4">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="L4">
-        <v>105</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
-        <v>375000</v>
-      </c>
-      <c r="E5">
-        <v>5.75</v>
+        <v>249900</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.72</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I5">
-        <v>39.932000000000002</v>
+        <v>38.494999999999997</v>
       </c>
       <c r="J5">
-        <v>-77.632000000000005</v>
+        <v>-78.605000000000004</v>
       </c>
       <c r="K5">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L5">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1">
-        <v>325000</v>
-      </c>
-      <c r="E6">
-        <v>12.18</v>
+        <v>30000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.75</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="I6">
-        <v>39.631</v>
+        <v>39.64</v>
       </c>
       <c r="J6">
-        <v>-78.388000000000005</v>
+        <v>-78.739999999999995</v>
       </c>
       <c r="K6">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="L6">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>399000</v>
-      </c>
-      <c r="E7">
-        <v>5.46</v>
+        <v>38000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.78</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="I7">
-        <v>39.625999999999998</v>
+        <v>39.65</v>
       </c>
       <c r="J7">
-        <v>-78.227999999999994</v>
+        <v>-78.77</v>
       </c>
       <c r="K7">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="L7">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
-        <v>399999</v>
-      </c>
-      <c r="E8">
-        <v>5.7</v>
+        <v>98500</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.9</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="I8">
-        <v>39.933999999999997</v>
+        <v>38.497999999999998</v>
       </c>
       <c r="J8">
-        <v>-77.661000000000001</v>
+        <v>-78.602000000000004</v>
       </c>
       <c r="K8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="L8">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -1460,150 +1465,150 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E9">
-        <v>4.5</v>
+        <v>495000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="I9">
-        <v>38.487000000000002</v>
+        <v>38.51</v>
       </c>
       <c r="J9">
-        <v>-78.625</v>
+        <v>-78.59</v>
       </c>
       <c r="K9">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L9">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
-        <v>250000</v>
-      </c>
-      <c r="E10">
-        <v>5.9</v>
+        <v>245000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.41</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="I10">
-        <v>39.597999999999999</v>
+        <v>38.496000000000002</v>
       </c>
       <c r="J10">
-        <v>-78.188000000000002</v>
+        <v>-78.603999999999999</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>350000</v>
-      </c>
-      <c r="E11">
-        <v>7.05</v>
+        <v>415000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.48</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="I11">
-        <v>39.615000000000002</v>
+        <v>38.520000000000003</v>
       </c>
       <c r="J11">
-        <v>-78.209999999999994</v>
+        <v>-78.58</v>
       </c>
       <c r="K11">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L11">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>209999</v>
-      </c>
-      <c r="E12">
-        <v>6.2</v>
+        <v>130000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.77</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G12">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="I12">
-        <v>39.612000000000002</v>
+        <v>39.78</v>
       </c>
       <c r="J12">
-        <v>-78.287999999999997</v>
+        <v>-77.34</v>
       </c>
       <c r="K12">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -1612,644 +1617,644 @@
         <v>29</v>
       </c>
       <c r="D13" s="1">
-        <v>349000</v>
-      </c>
-      <c r="E13">
-        <v>82</v>
+        <v>49900</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.87</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="I13">
-        <v>39.652000000000001</v>
+        <v>39.58</v>
       </c>
       <c r="J13">
-        <v>-78.760999999999996</v>
+        <v>-78.8</v>
       </c>
       <c r="K13">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L13">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
-        <v>275000</v>
-      </c>
-      <c r="E14">
-        <v>8.82</v>
+        <v>59500</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.96</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G14">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="I14">
-        <v>39.625999999999998</v>
+        <v>38.49</v>
       </c>
       <c r="J14">
-        <v>-78.227999999999994</v>
+        <v>-78.61</v>
       </c>
       <c r="K14">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="L14">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
-        <v>299900</v>
-      </c>
-      <c r="E15">
-        <v>5.22</v>
+        <v>329900</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.97</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="I15">
-        <v>39.582000000000001</v>
+        <v>38.53</v>
       </c>
       <c r="J15">
-        <v>-78.194999999999993</v>
+        <v>-78.569999999999993</v>
       </c>
       <c r="K15">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L15">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
-        <v>335000</v>
-      </c>
-      <c r="E16">
-        <v>6.28</v>
+        <v>29900</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G16">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="I16">
-        <v>39.284999999999997</v>
+        <v>39.56</v>
       </c>
       <c r="J16">
-        <v>-78.64</v>
+        <v>-78.62</v>
       </c>
       <c r="K16">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1">
-        <v>299900</v>
-      </c>
-      <c r="E17">
-        <v>7.68</v>
+        <v>37900</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.75</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G17">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>220</v>
       </c>
       <c r="I17">
-        <v>39.29</v>
+        <v>39.6</v>
       </c>
       <c r="J17">
-        <v>-78.63</v>
+        <v>-78.819999999999993</v>
       </c>
       <c r="K17">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1">
-        <v>223000</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
+        <v>450000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.99</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="I18">
-        <v>39.298000000000002</v>
+        <v>38.54</v>
       </c>
       <c r="J18">
-        <v>-78.444999999999993</v>
+        <v>-78.56</v>
       </c>
       <c r="K18">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="L18">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
-        <v>149900</v>
-      </c>
-      <c r="E19">
-        <v>12.29</v>
+        <v>250000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.37</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G19">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="I19">
-        <v>39.31</v>
+        <v>40.01</v>
       </c>
       <c r="J19">
-        <v>-78.650000000000006</v>
+        <v>-77.150000000000006</v>
       </c>
       <c r="K19">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L19">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1">
-        <v>265000</v>
-      </c>
-      <c r="E20">
-        <v>14.25</v>
+        <v>150000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.5</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I20">
-        <v>39.450000000000003</v>
+        <v>38.487000000000002</v>
       </c>
       <c r="J20">
-        <v>-78.680000000000007</v>
+        <v>-78.625</v>
       </c>
       <c r="K20">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L20">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1">
-        <v>385000</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
+        <v>445000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4.5</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G21">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="I21">
-        <v>39.305</v>
+        <v>39.64</v>
       </c>
       <c r="J21">
-        <v>-78.430000000000007</v>
+        <v>-78.78</v>
       </c>
       <c r="K21">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="L21">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="1">
-        <v>378000</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
+        <v>190000</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.55</v>
       </c>
       <c r="F22" t="s">
         <v>71</v>
       </c>
       <c r="G22">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="I22">
-        <v>38.712000000000003</v>
+        <v>38.479999999999997</v>
       </c>
       <c r="J22">
-        <v>-78.165000000000006</v>
+        <v>-78.63</v>
       </c>
       <c r="K22">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="L22">
-        <v>85</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>199000</v>
-      </c>
-      <c r="E23">
-        <v>42.06</v>
+        <v>385000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I23">
-        <v>39.630000000000003</v>
+        <v>39.305</v>
       </c>
       <c r="J23">
-        <v>-78.25</v>
+        <v>-78.430000000000007</v>
       </c>
       <c r="K23">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="L23">
-        <v>125</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1">
-        <v>339900</v>
-      </c>
-      <c r="E24">
-        <v>52.76</v>
+        <v>219900</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>71</v>
       </c>
       <c r="G24">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="I24">
-        <v>39.914999999999999</v>
+        <v>39.255000000000003</v>
       </c>
       <c r="J24">
-        <v>-77.802000000000007</v>
+        <v>-78.08</v>
       </c>
       <c r="K24">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="L24">
-        <v>120</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1">
-        <v>333000</v>
-      </c>
-      <c r="E25">
-        <v>25.82</v>
+        <v>100000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
       </c>
       <c r="F25" t="s">
         <v>71</v>
       </c>
       <c r="G25">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="I25">
-        <v>39.645000000000003</v>
+        <v>39.21</v>
       </c>
       <c r="J25">
-        <v>-78.209999999999994</v>
+        <v>-78.13</v>
       </c>
       <c r="K25">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="L25">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1">
-        <v>329000</v>
-      </c>
-      <c r="E26">
-        <v>25.87</v>
+        <v>189900</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
       </c>
       <c r="F26" t="s">
         <v>71</v>
       </c>
       <c r="G26">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="I26">
-        <v>39.893999999999998</v>
+        <v>39.258000000000003</v>
       </c>
       <c r="J26">
-        <v>-77.525000000000006</v>
+        <v>-78.075000000000003</v>
       </c>
       <c r="K26">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="L26">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1">
-        <v>325000</v>
-      </c>
-      <c r="E27">
-        <v>24.39</v>
+        <v>395000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>71</v>
       </c>
       <c r="G27">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="I27">
-        <v>39.83</v>
+        <v>39.6</v>
       </c>
       <c r="J27">
-        <v>-77.23</v>
+        <v>-78.75</v>
       </c>
       <c r="K27">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="L27">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1850000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28">
+        <v>38.770000000000003</v>
+      </c>
+      <c r="J28">
+        <v>-77.37</v>
+      </c>
+      <c r="K28">
+        <v>18</v>
+      </c>
+      <c r="L28">
         <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="1">
-        <v>399900</v>
-      </c>
-      <c r="E28">
-        <v>48.04</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28">
-        <v>70</v>
-      </c>
-      <c r="H28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28">
-        <v>39.631999999999998</v>
-      </c>
-      <c r="J28">
-        <v>-78.391000000000005</v>
-      </c>
-      <c r="K28">
-        <v>106</v>
-      </c>
-      <c r="L28">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1">
-        <v>375000</v>
-      </c>
-      <c r="E29">
-        <v>30.54</v>
+        <v>39000</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5.01</v>
       </c>
       <c r="F29" t="s">
         <v>71</v>
       </c>
       <c r="G29">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="I29">
-        <v>39.61</v>
+        <v>39.604999999999997</v>
       </c>
       <c r="J29">
-        <v>-78.19</v>
+        <v>-78.34</v>
       </c>
       <c r="K29">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="L29">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -2258,74 +2263,74 @@
         <v>14</v>
       </c>
       <c r="D30" s="1">
-        <v>300000</v>
-      </c>
-      <c r="E30">
-        <v>11.68</v>
+        <v>280000</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.0999999999999996</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>39.549999999999997</v>
+        <v>39.600999999999999</v>
       </c>
       <c r="J30">
-        <v>-78.28</v>
+        <v>-78.153999999999996</v>
       </c>
       <c r="K30">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L30">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1">
-        <v>299000</v>
-      </c>
-      <c r="E31">
-        <v>23.89</v>
+        <v>359499</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5.0999999999999996</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I31">
-        <v>39.640999999999998</v>
+        <v>39.554000000000002</v>
       </c>
       <c r="J31">
-        <v>-78.155000000000001</v>
+        <v>-78.012</v>
       </c>
       <c r="K31">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L31">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -2334,264 +2339,264 @@
         <v>37</v>
       </c>
       <c r="D32" s="1">
-        <v>299900</v>
-      </c>
-      <c r="E32">
-        <v>7.82</v>
+        <v>150000</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5.0999999999999996</v>
       </c>
       <c r="F32" t="s">
         <v>71</v>
       </c>
       <c r="G32">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="I32">
-        <v>39.182000000000002</v>
+        <v>39.174999999999997</v>
       </c>
       <c r="J32">
-        <v>-78.165000000000006</v>
+        <v>-78.150000000000006</v>
       </c>
       <c r="K32">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L32">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="1">
-        <v>199999</v>
-      </c>
-      <c r="E33">
-        <v>34.159999999999997</v>
+        <v>48000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5.15</v>
       </c>
       <c r="F33" t="s">
         <v>71</v>
       </c>
       <c r="G33">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="I33">
-        <v>39.612000000000002</v>
+        <v>39.576000000000001</v>
       </c>
       <c r="J33">
-        <v>-78.33</v>
+        <v>-78.088999999999999</v>
       </c>
       <c r="K33">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="L33">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1">
-        <v>199900</v>
-      </c>
-      <c r="E34">
-        <v>7.67</v>
+        <v>299900</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5.22</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G34">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34">
+        <v>39.582000000000001</v>
+      </c>
+      <c r="J34">
+        <v>-78.194999999999993</v>
+      </c>
+      <c r="K34">
         <v>101</v>
       </c>
-      <c r="I34">
-        <v>38.664999999999999</v>
-      </c>
-      <c r="J34">
-        <v>-78.454999999999998</v>
-      </c>
-      <c r="K34">
-        <v>92</v>
-      </c>
       <c r="L34">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1">
-        <v>199900</v>
-      </c>
-      <c r="E35">
-        <v>18.010000000000002</v>
+        <v>124900</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5.24</v>
       </c>
       <c r="F35" t="s">
         <v>71</v>
       </c>
       <c r="G35">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I35">
-        <v>38.408000000000001</v>
+        <v>39.634999999999998</v>
       </c>
       <c r="J35">
-        <v>-78.620999999999995</v>
+        <v>-77.474999999999994</v>
       </c>
       <c r="K35">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="L35">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1">
-        <v>185000</v>
-      </c>
-      <c r="E36">
-        <v>8.19</v>
+        <v>49000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5.25</v>
       </c>
       <c r="F36" t="s">
         <v>71</v>
       </c>
       <c r="G36">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="I36">
-        <v>38.67</v>
+        <v>39.625</v>
       </c>
       <c r="J36">
-        <v>-78.441999999999993</v>
+        <v>-78.305000000000007</v>
       </c>
       <c r="K36">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="L36">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1">
-        <v>164900</v>
-      </c>
-      <c r="E37">
-        <v>8.57</v>
+        <v>39900</v>
+      </c>
+      <c r="E37" s="2">
+        <v>5.26</v>
       </c>
       <c r="F37" t="s">
         <v>71</v>
       </c>
       <c r="G37">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="I37">
-        <v>38.744999999999997</v>
+        <v>39.607999999999997</v>
       </c>
       <c r="J37">
-        <v>-78.39</v>
+        <v>-78.355000000000004</v>
       </c>
       <c r="K37">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="L37">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1">
-        <v>124900</v>
-      </c>
-      <c r="E38">
-        <v>5.24</v>
+        <v>130000</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5.32</v>
       </c>
       <c r="F38" t="s">
         <v>71</v>
       </c>
       <c r="G38">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I38">
-        <v>39.634999999999998</v>
+        <v>39.530999999999999</v>
       </c>
       <c r="J38">
-        <v>-77.474999999999994</v>
+        <v>-78.066999999999993</v>
       </c>
       <c r="K38">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L38">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -2600,218 +2605,218 @@
         <v>14</v>
       </c>
       <c r="D39" s="1">
-        <v>175000</v>
-      </c>
-      <c r="E39">
-        <v>12</v>
+        <v>399000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5.46</v>
       </c>
       <c r="F39" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I39">
-        <v>39.65</v>
+        <v>39.625999999999998</v>
       </c>
       <c r="J39">
-        <v>-78.180000000000007</v>
+        <v>-78.227999999999994</v>
       </c>
       <c r="K39">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L39">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="1">
-        <v>129000</v>
-      </c>
-      <c r="E40">
-        <v>12.31</v>
+        <v>49000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5.49</v>
       </c>
       <c r="F40" t="s">
         <v>71</v>
       </c>
       <c r="G40">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="I40">
-        <v>39.631999999999998</v>
+        <v>39.625999999999998</v>
       </c>
       <c r="J40">
-        <v>-78.22</v>
+        <v>-78.305999999999997</v>
       </c>
       <c r="K40">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L40">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
-        <v>107000</v>
-      </c>
-      <c r="E41">
-        <v>9.4600000000000009</v>
+        <v>399999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5.7</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="I41">
-        <v>39.607999999999997</v>
+        <v>39.933999999999997</v>
       </c>
       <c r="J41">
-        <v>-78.314999999999998</v>
+        <v>-77.661000000000001</v>
       </c>
       <c r="K41">
+        <v>102</v>
+      </c>
+      <c r="L41">
         <v>110</v>
-      </c>
-      <c r="L41">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1">
-        <v>74900</v>
-      </c>
-      <c r="E42">
-        <v>8.52</v>
+        <v>375000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5.75</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G42">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I42">
-        <v>39.655000000000001</v>
+        <v>39.932000000000002</v>
       </c>
       <c r="J42">
-        <v>-78.92</v>
+        <v>-77.632000000000005</v>
       </c>
       <c r="K42">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="L42">
-        <v>165</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1">
-        <v>85000</v>
-      </c>
-      <c r="E43">
-        <v>8.98</v>
+        <v>250000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>5.9</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G43">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="I43">
-        <v>39.619999999999997</v>
+        <v>39.597999999999999</v>
       </c>
       <c r="J43">
-        <v>-78.805000000000007</v>
+        <v>-78.188000000000002</v>
       </c>
       <c r="K43">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="L43">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D44" s="1">
-        <v>130000</v>
-      </c>
-      <c r="E44">
-        <v>5.32</v>
+        <v>43000</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6</v>
       </c>
       <c r="F44" t="s">
         <v>71</v>
       </c>
       <c r="G44">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="I44">
-        <v>39.530999999999999</v>
+        <v>39.31</v>
       </c>
       <c r="J44">
-        <v>-78.066999999999993</v>
+        <v>-78.19</v>
       </c>
       <c r="K44">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L44">
         <v>105</v>
@@ -2819,78 +2824,78 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D45" s="1">
-        <v>48000</v>
-      </c>
-      <c r="E45">
-        <v>5.15</v>
+        <v>2875000</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G45">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="I45">
-        <v>39.576000000000001</v>
+        <v>38.78</v>
       </c>
       <c r="J45">
-        <v>-78.088999999999999</v>
+        <v>-77.349999999999994</v>
       </c>
       <c r="K45">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="L45">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1">
-        <v>75000</v>
-      </c>
-      <c r="E46">
-        <v>6.43</v>
+        <v>2875000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G46">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="I46">
-        <v>39.615000000000002</v>
+        <v>38.765000000000001</v>
       </c>
       <c r="J46">
-        <v>-78.349999999999994</v>
+        <v>-77.38</v>
       </c>
       <c r="K46">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="L46">
-        <v>135</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2906,7 +2911,7 @@
       <c r="D47" s="1">
         <v>44900</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>6.18</v>
       </c>
       <c r="F47" t="s">
@@ -2933,7 +2938,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
@@ -2942,74 +2947,74 @@
         <v>14</v>
       </c>
       <c r="D48" s="1">
-        <v>70600</v>
-      </c>
-      <c r="E48">
-        <v>7.06</v>
+        <v>209999</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6.2</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="I48">
-        <v>39.619999999999997</v>
+        <v>39.612000000000002</v>
       </c>
       <c r="J48">
-        <v>-78.31</v>
+        <v>-78.287999999999997</v>
       </c>
       <c r="K48">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L48">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="1">
-        <v>39000</v>
-      </c>
-      <c r="E49">
-        <v>5.01</v>
+        <v>335000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6.28</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G49">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="I49">
-        <v>39.604999999999997</v>
+        <v>39.284999999999997</v>
       </c>
       <c r="J49">
-        <v>-78.34</v>
+        <v>-78.64</v>
       </c>
       <c r="K49">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="L49">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -3018,36 +3023,36 @@
         <v>14</v>
       </c>
       <c r="D50" s="1">
-        <v>124500</v>
-      </c>
-      <c r="E50">
-        <v>8.4600000000000009</v>
+        <v>75000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>6.43</v>
       </c>
       <c r="F50" t="s">
         <v>71</v>
       </c>
       <c r="G50">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I50">
-        <v>39.61</v>
+        <v>39.615000000000002</v>
       </c>
       <c r="J50">
-        <v>-78.319999999999993</v>
+        <v>-78.349999999999994</v>
       </c>
       <c r="K50">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L50">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -3056,36 +3061,36 @@
         <v>14</v>
       </c>
       <c r="D51" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E51">
-        <v>9.42</v>
+        <v>350000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7.05</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G51">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="I51">
-        <v>39.585000000000001</v>
+        <v>39.615000000000002</v>
       </c>
       <c r="J51">
-        <v>-78.245000000000005</v>
+        <v>-78.209999999999994</v>
       </c>
       <c r="K51">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L51">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
         <v>44</v>
@@ -3094,112 +3099,112 @@
         <v>14</v>
       </c>
       <c r="D52" s="1">
-        <v>49000</v>
-      </c>
-      <c r="E52">
-        <v>5.25</v>
+        <v>70600</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7.06</v>
       </c>
       <c r="F52" t="s">
         <v>71</v>
       </c>
       <c r="G52">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I52">
-        <v>39.625</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="J52">
-        <v>-78.305000000000007</v>
+        <v>-78.31</v>
       </c>
       <c r="K52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L52">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1">
-        <v>49000</v>
-      </c>
-      <c r="E53">
-        <v>5.49</v>
+        <v>199900</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7.67</v>
       </c>
       <c r="F53" t="s">
         <v>71</v>
       </c>
       <c r="G53">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H53" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="I53">
-        <v>39.625999999999998</v>
+        <v>38.664999999999999</v>
       </c>
       <c r="J53">
-        <v>-78.305999999999997</v>
+        <v>-78.454999999999998</v>
       </c>
       <c r="K53">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="L53">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="1">
-        <v>39900</v>
-      </c>
-      <c r="E54">
-        <v>5.26</v>
+        <v>299900</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7.68</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G54">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="I54">
-        <v>39.607999999999997</v>
+        <v>39.29</v>
       </c>
       <c r="J54">
-        <v>-78.355000000000004</v>
+        <v>-78.63</v>
       </c>
       <c r="K54">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L54">
-        <v>138</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
         <v>95</v>
@@ -3208,74 +3213,74 @@
         <v>37</v>
       </c>
       <c r="D55" s="1">
-        <v>160000</v>
-      </c>
-      <c r="E55">
-        <v>9.59</v>
+        <v>299900</v>
+      </c>
+      <c r="E55" s="2">
+        <v>7.82</v>
       </c>
       <c r="F55" t="s">
         <v>71</v>
       </c>
       <c r="G55">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="I55">
-        <v>39.195</v>
+        <v>39.182000000000002</v>
       </c>
       <c r="J55">
-        <v>-78.14</v>
+        <v>-78.165000000000006</v>
       </c>
       <c r="K55">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L55">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="1">
-        <v>327750</v>
-      </c>
-      <c r="E56">
-        <v>40.200000000000003</v>
+        <v>185000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>8.19</v>
       </c>
       <c r="F56" t="s">
         <v>71</v>
       </c>
       <c r="G56">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="I56">
-        <v>39.25</v>
+        <v>38.67</v>
       </c>
       <c r="J56">
-        <v>-78.05</v>
+        <v>-78.441999999999993</v>
       </c>
       <c r="K56">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L56">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>95</v>
@@ -3284,484 +3289,484 @@
         <v>37</v>
       </c>
       <c r="D57" s="1">
-        <v>169900</v>
-      </c>
-      <c r="E57">
-        <v>49.61</v>
+        <v>129000</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8.3000000000000007</v>
       </c>
       <c r="F57" t="s">
         <v>71</v>
       </c>
       <c r="G57">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I57">
-        <v>39.22</v>
+        <v>39.229999999999997</v>
       </c>
       <c r="J57">
-        <v>-78.11</v>
+        <v>-78.12</v>
       </c>
       <c r="K57">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L57">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D58" s="1">
-        <v>219900</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
+        <v>124500</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8.4600000000000009</v>
       </c>
       <c r="F58" t="s">
         <v>71</v>
       </c>
       <c r="G58">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I58">
-        <v>39.255000000000003</v>
+        <v>39.61</v>
       </c>
       <c r="J58">
-        <v>-78.08</v>
+        <v>-78.319999999999993</v>
       </c>
       <c r="K58">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="L58">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D59" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
+        <v>74900</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8.52</v>
       </c>
       <c r="F59" t="s">
         <v>71</v>
       </c>
       <c r="G59">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H59" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I59">
-        <v>39.21</v>
+        <v>39.655000000000001</v>
       </c>
       <c r="J59">
-        <v>-78.13</v>
+        <v>-78.92</v>
       </c>
       <c r="K59">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="L59">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D60" s="1">
-        <v>43000</v>
-      </c>
-      <c r="E60">
-        <v>6</v>
+        <v>84900</v>
+      </c>
+      <c r="E60" s="2">
+        <v>8.52</v>
       </c>
       <c r="F60" t="s">
         <v>71</v>
       </c>
       <c r="G60">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="I60">
-        <v>39.31</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="J60">
-        <v>-78.19</v>
+        <v>-78.73</v>
       </c>
       <c r="K60">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L60">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="1">
-        <v>189900</v>
-      </c>
-      <c r="E61">
-        <v>5</v>
+        <v>164900</v>
+      </c>
+      <c r="E61" s="2">
+        <v>8.57</v>
       </c>
       <c r="F61" t="s">
         <v>71</v>
       </c>
       <c r="G61">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="I61">
-        <v>39.258000000000003</v>
+        <v>38.744999999999997</v>
       </c>
       <c r="J61">
-        <v>-78.075000000000003</v>
+        <v>-78.39</v>
       </c>
       <c r="K61">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="L61">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1">
-        <v>299900</v>
-      </c>
-      <c r="E62">
-        <v>30.78</v>
+        <v>275000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>8.82</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G62">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c r="I62">
-        <v>39.325000000000003</v>
+        <v>39.625999999999998</v>
       </c>
       <c r="J62">
-        <v>-78.185000000000002</v>
+        <v>-78.227999999999994</v>
       </c>
       <c r="K62">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L62">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D63" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E63">
-        <v>5.0999999999999996</v>
+        <v>85000</v>
+      </c>
+      <c r="E63" s="2">
+        <v>8.98</v>
       </c>
       <c r="F63" t="s">
         <v>71</v>
       </c>
       <c r="G63">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H63" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="I63">
-        <v>39.174999999999997</v>
+        <v>39.619999999999997</v>
       </c>
       <c r="J63">
-        <v>-78.150000000000006</v>
+        <v>-78.805000000000007</v>
       </c>
       <c r="K63">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="L63">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1">
-        <v>129000</v>
-      </c>
-      <c r="E64">
-        <v>8.3000000000000007</v>
+        <v>60000</v>
+      </c>
+      <c r="E64" s="2">
+        <v>9.42</v>
       </c>
       <c r="F64" t="s">
         <v>71</v>
       </c>
       <c r="G64">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="I64">
-        <v>39.229999999999997</v>
+        <v>39.585000000000001</v>
       </c>
       <c r="J64">
-        <v>-78.12</v>
+        <v>-78.245000000000005</v>
       </c>
       <c r="K64">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="L64">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D65" s="1">
-        <v>244900</v>
-      </c>
-      <c r="E65">
-        <v>10.029999999999999</v>
+        <v>107000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>9.4600000000000009</v>
       </c>
       <c r="F65" t="s">
         <v>71</v>
       </c>
       <c r="G65">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="I65">
-        <v>39.984999999999999</v>
+        <v>39.607999999999997</v>
       </c>
       <c r="J65">
-        <v>-77.25</v>
+        <v>-78.314999999999998</v>
       </c>
       <c r="K65">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="L65">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D66" s="1">
-        <v>349000</v>
-      </c>
-      <c r="E66">
-        <v>10.5</v>
+        <v>160000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>9.59</v>
       </c>
       <c r="F66" t="s">
         <v>71</v>
       </c>
       <c r="G66">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="I66">
-        <v>39.75</v>
+        <v>39.195</v>
       </c>
       <c r="J66">
-        <v>-77.08</v>
+        <v>-78.14</v>
       </c>
       <c r="K66">
+        <v>70</v>
+      </c>
+      <c r="L66">
         <v>82</v>
-      </c>
-      <c r="L66">
-        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1">
-        <v>399000</v>
-      </c>
-      <c r="E67">
-        <v>16.95</v>
+        <v>223000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G67">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="I67">
-        <v>39.950000000000003</v>
+        <v>39.298000000000002</v>
       </c>
       <c r="J67">
-        <v>-77.3</v>
+        <v>-78.444999999999993</v>
       </c>
       <c r="K67">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="L67">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
       </c>
       <c r="D68" s="1">
-        <v>250000</v>
-      </c>
-      <c r="E68">
-        <v>4.37</v>
+        <v>244900</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10.029999999999999</v>
       </c>
       <c r="F68" t="s">
         <v>71</v>
       </c>
       <c r="G68">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I68">
-        <v>40.01</v>
+        <v>39.984999999999999</v>
       </c>
       <c r="J68">
-        <v>-77.150000000000006</v>
+        <v>-77.25</v>
       </c>
       <c r="K68">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L68">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D69" s="1">
-        <v>199900</v>
-      </c>
-      <c r="E69">
-        <v>10.35</v>
+        <v>285000</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10.17</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G69">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="I69">
-        <v>39.93</v>
+        <v>39.296999999999997</v>
       </c>
       <c r="J69">
-        <v>-77.28</v>
+        <v>-78.635000000000005</v>
       </c>
       <c r="K69">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L69">
         <v>110</v>
@@ -3769,40 +3774,40 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
       </c>
       <c r="D70" s="1">
-        <v>130000</v>
-      </c>
-      <c r="E70">
-        <v>2.77</v>
+        <v>199900</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10.35</v>
       </c>
       <c r="F70" t="s">
         <v>71</v>
       </c>
       <c r="G70">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I70">
-        <v>39.78</v>
+        <v>39.93</v>
       </c>
       <c r="J70">
-        <v>-77.34</v>
+        <v>-77.28</v>
       </c>
       <c r="K70">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="L70">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3818,7 +3823,7 @@
       <c r="D71" s="1">
         <v>350000</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>10.42</v>
       </c>
       <c r="F71" t="s">
@@ -3845,113 +3850,113 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B72" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D72" s="1">
-        <v>59500</v>
-      </c>
-      <c r="E72">
-        <v>2.96</v>
+        <v>349000</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10.5</v>
       </c>
       <c r="F72" t="s">
         <v>71</v>
       </c>
       <c r="G72">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="I72">
-        <v>38.49</v>
+        <v>39.75</v>
       </c>
       <c r="J72">
-        <v>-78.61</v>
+        <v>-77.08</v>
       </c>
       <c r="K72">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="L72">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D73" s="1">
-        <v>34900</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
+        <v>80000</v>
+      </c>
+      <c r="E73" s="2">
+        <v>11.5</v>
       </c>
       <c r="F73" t="s">
         <v>71</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="I73">
-        <v>38.484999999999999</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="J73">
-        <v>-78.614999999999995</v>
+        <v>-78.599999999999994</v>
       </c>
       <c r="K73">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L73">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1">
-        <v>249900</v>
-      </c>
-      <c r="E74">
-        <v>1.72</v>
+        <v>300000</v>
+      </c>
+      <c r="E74" s="2">
+        <v>11.68</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G74">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H74" t="s">
-        <v>193</v>
+        <v>91</v>
       </c>
       <c r="I74">
-        <v>38.494999999999997</v>
+        <v>39.549999999999997</v>
       </c>
       <c r="J74">
-        <v>-78.605000000000004</v>
+        <v>-78.28</v>
       </c>
       <c r="K74">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L74">
         <v>130</v>
@@ -3959,273 +3964,273 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D75" s="1">
-        <v>495000</v>
-      </c>
-      <c r="E75">
-        <v>2</v>
+        <v>175000</v>
+      </c>
+      <c r="E75" s="2">
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G75">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H75" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="I75">
-        <v>38.51</v>
+        <v>39.65</v>
       </c>
       <c r="J75">
-        <v>-78.59</v>
+        <v>-78.180000000000007</v>
       </c>
       <c r="K75">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L75">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D76" s="1">
-        <v>245000</v>
-      </c>
-      <c r="E76">
-        <v>2.41</v>
+        <v>325000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>12.18</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G76">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="I76">
-        <v>38.496000000000002</v>
+        <v>39.631</v>
       </c>
       <c r="J76">
-        <v>-78.603999999999999</v>
+        <v>-78.388000000000005</v>
       </c>
       <c r="K76">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L76">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D77" s="1">
-        <v>415000</v>
-      </c>
-      <c r="E77">
-        <v>2.48</v>
+        <v>149900</v>
+      </c>
+      <c r="E77" s="2">
+        <v>12.29</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G77">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="I77">
-        <v>38.520000000000003</v>
+        <v>39.31</v>
       </c>
       <c r="J77">
-        <v>-78.58</v>
+        <v>-78.650000000000006</v>
       </c>
       <c r="K77">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L77">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1">
-        <v>329900</v>
-      </c>
-      <c r="E78">
-        <v>2.97</v>
+        <v>129000</v>
+      </c>
+      <c r="E78" s="2">
+        <v>12.31</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G78">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H78" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="I78">
-        <v>38.53</v>
+        <v>39.631999999999998</v>
       </c>
       <c r="J78">
-        <v>-78.569999999999993</v>
+        <v>-78.22</v>
       </c>
       <c r="K78">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L78">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D79" s="1">
-        <v>450000</v>
-      </c>
-      <c r="E79">
-        <v>3.99</v>
+        <v>265000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>14.25</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="I79">
-        <v>38.54</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="J79">
-        <v>-78.56</v>
+        <v>-78.680000000000007</v>
       </c>
       <c r="K79">
         <v>105</v>
       </c>
       <c r="L79">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D80" s="1">
-        <v>190000</v>
-      </c>
-      <c r="E80">
-        <v>4.55</v>
+        <v>600000</v>
+      </c>
+      <c r="E80" s="2">
+        <v>14.58</v>
       </c>
       <c r="F80" t="s">
         <v>71</v>
       </c>
       <c r="G80">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="I80">
-        <v>38.479999999999997</v>
+        <v>39.65</v>
       </c>
       <c r="J80">
-        <v>-78.63</v>
+        <v>-78.72</v>
       </c>
       <c r="K80">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="L80">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" s="1">
-        <v>98500</v>
-      </c>
-      <c r="E81">
-        <v>1.9</v>
+        <v>1500000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>15.36</v>
       </c>
       <c r="F81" t="s">
         <v>71</v>
       </c>
       <c r="G81">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="I81">
-        <v>38.497999999999998</v>
+        <v>38.774999999999999</v>
       </c>
       <c r="J81">
-        <v>-78.602000000000004</v>
+        <v>-77.36</v>
       </c>
       <c r="K81">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="L81">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B82" t="s">
         <v>47</v>
@@ -4234,718 +4239,721 @@
         <v>29</v>
       </c>
       <c r="D82" s="1">
-        <v>395000</v>
-      </c>
-      <c r="E82">
-        <v>5</v>
+        <v>2998000</v>
+      </c>
+      <c r="E82" s="2">
+        <v>15.47</v>
       </c>
       <c r="F82" t="s">
         <v>71</v>
       </c>
       <c r="G82">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="I82">
-        <v>39.6</v>
+        <v>39.67</v>
       </c>
       <c r="J82">
-        <v>-78.75</v>
+        <v>-78.760000000000005</v>
       </c>
       <c r="K82">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L82">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D83" s="1">
-        <v>780000</v>
-      </c>
-      <c r="E83">
-        <v>260</v>
+        <v>399000</v>
+      </c>
+      <c r="E83" s="2">
+        <v>16.95</v>
       </c>
       <c r="F83" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G83">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H83" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="I83">
-        <v>39.5</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="J83">
-        <v>-79.05</v>
+        <v>-77.3</v>
       </c>
       <c r="K83">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="L83">
-        <v>175</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D84" s="1">
-        <v>600000</v>
-      </c>
-      <c r="E84">
-        <v>14.58</v>
+        <v>199900</v>
+      </c>
+      <c r="E84" s="2">
+        <v>18.010000000000002</v>
       </c>
       <c r="F84" t="s">
         <v>71</v>
       </c>
       <c r="G84">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H84" t="s">
-        <v>213</v>
+        <v>104</v>
       </c>
       <c r="I84">
-        <v>39.65</v>
+        <v>38.408000000000001</v>
       </c>
       <c r="J84">
-        <v>-78.72</v>
+        <v>-78.620999999999995</v>
       </c>
       <c r="K84">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="L84">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D85" s="1">
-        <v>749000</v>
-      </c>
-      <c r="E85">
-        <v>235.87</v>
+        <v>299000</v>
+      </c>
+      <c r="E85" s="2">
+        <v>23.89</v>
       </c>
       <c r="F85" t="s">
         <v>71</v>
       </c>
       <c r="G85">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="H85" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="I85">
-        <v>39.630000000000003</v>
+        <v>39.640999999999998</v>
       </c>
       <c r="J85">
-        <v>-78.7</v>
+        <v>-78.155000000000001</v>
       </c>
       <c r="K85">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="L85">
-        <v>145</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D86" s="1">
-        <v>80000</v>
-      </c>
-      <c r="E86">
-        <v>11.5</v>
+        <v>325000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>24.39</v>
       </c>
       <c r="F86" t="s">
         <v>71</v>
       </c>
       <c r="G86">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H86" t="s">
-        <v>217</v>
+        <v>85</v>
       </c>
       <c r="I86">
-        <v>39.549999999999997</v>
+        <v>39.83</v>
       </c>
       <c r="J86">
-        <v>-78.599999999999994</v>
+        <v>-77.23</v>
       </c>
       <c r="K86">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="L86">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D87" s="1">
-        <v>37900</v>
-      </c>
-      <c r="E87">
-        <v>3.75</v>
+        <v>333000</v>
+      </c>
+      <c r="E87" s="2">
+        <v>25.82</v>
       </c>
       <c r="F87" t="s">
         <v>71</v>
       </c>
       <c r="G87">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H87" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="I87">
-        <v>39.6</v>
+        <v>39.645000000000003</v>
       </c>
       <c r="J87">
-        <v>-78.819999999999993</v>
+        <v>-78.209999999999994</v>
       </c>
       <c r="K87">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="L87">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D88" s="1">
-        <v>29900</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
+        <v>329000</v>
+      </c>
+      <c r="E88" s="2">
+        <v>25.87</v>
       </c>
       <c r="F88" t="s">
         <v>71</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="H88" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="I88">
-        <v>39.56</v>
+        <v>39.893999999999998</v>
       </c>
       <c r="J88">
-        <v>-78.62</v>
+        <v>-77.525000000000006</v>
       </c>
       <c r="K88">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L88">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D89" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E89">
-        <v>1.75</v>
+        <v>378000</v>
+      </c>
+      <c r="E89" s="2">
+        <v>27</v>
       </c>
       <c r="F89" t="s">
         <v>71</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="H89" t="s">
-        <v>224</v>
+        <v>72</v>
       </c>
       <c r="I89">
-        <v>39.64</v>
+        <v>38.712000000000003</v>
       </c>
       <c r="J89">
-        <v>-78.739999999999995</v>
+        <v>-78.165000000000006</v>
       </c>
       <c r="K89">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="L89">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D90" s="1">
-        <v>84900</v>
-      </c>
-      <c r="E90">
-        <v>8.52</v>
+        <v>375000</v>
+      </c>
+      <c r="E90" s="2">
+        <v>30.54</v>
       </c>
       <c r="F90" t="s">
         <v>71</v>
       </c>
       <c r="G90">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="H90" t="s">
-        <v>226</v>
+        <v>89</v>
       </c>
       <c r="I90">
-        <v>39.659999999999997</v>
+        <v>39.61</v>
       </c>
       <c r="J90">
-        <v>-78.73</v>
+        <v>-78.19</v>
       </c>
       <c r="K90">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="L90">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D91" s="1">
-        <v>39500</v>
-      </c>
-      <c r="E91">
-        <v>1.1000000000000001</v>
+        <v>299900</v>
+      </c>
+      <c r="E91" s="2">
+        <v>30.78</v>
       </c>
       <c r="F91" t="s">
         <v>71</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="I91">
-        <v>39.520000000000003</v>
+        <v>39.325000000000003</v>
       </c>
       <c r="J91">
-        <v>-78.88</v>
+        <v>-78.185000000000002</v>
       </c>
       <c r="K91">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="L91">
-        <v>165</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D92" s="1">
-        <v>29900</v>
-      </c>
-      <c r="E92">
-        <v>1.2</v>
+        <v>199999</v>
+      </c>
+      <c r="E92" s="2">
+        <v>34.159999999999997</v>
       </c>
       <c r="F92" t="s">
         <v>71</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="H92" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="I92">
-        <v>39.524999999999999</v>
+        <v>39.612000000000002</v>
       </c>
       <c r="J92">
-        <v>-78.885000000000005</v>
+        <v>-78.33</v>
       </c>
       <c r="K92">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="L92">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D93" s="1">
-        <v>49900</v>
-      </c>
-      <c r="E93">
-        <v>2.87</v>
+        <v>327750</v>
+      </c>
+      <c r="E93" s="2">
+        <v>40.200000000000003</v>
       </c>
       <c r="F93" t="s">
         <v>71</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H93" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="I93">
-        <v>39.58</v>
+        <v>39.25</v>
       </c>
       <c r="J93">
-        <v>-78.8</v>
+        <v>-78.05</v>
       </c>
       <c r="K93">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="L93">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>233</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D94" s="1">
-        <v>38000</v>
-      </c>
-      <c r="E94">
-        <v>1.78</v>
+        <v>199000</v>
+      </c>
+      <c r="E94" s="2">
+        <v>42.06</v>
       </c>
       <c r="F94" t="s">
         <v>71</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="H94" t="s">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="I94">
-        <v>39.65</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="J94">
-        <v>-78.77</v>
+        <v>-78.25</v>
       </c>
       <c r="K94">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L94">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="1">
-        <v>2998000</v>
-      </c>
-      <c r="E95">
-        <v>15.47</v>
+        <v>399900</v>
+      </c>
+      <c r="E95" s="2">
+        <v>48.04</v>
       </c>
       <c r="F95" t="s">
         <v>71</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="I95">
-        <v>39.67</v>
+        <v>39.631999999999998</v>
       </c>
       <c r="J95">
-        <v>-78.760000000000005</v>
+        <v>-78.391000000000005</v>
       </c>
       <c r="K95">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="L95">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D96" s="1">
-        <v>445000</v>
-      </c>
-      <c r="E96">
-        <v>4.5</v>
+        <v>169900</v>
+      </c>
+      <c r="E96" s="2">
+        <v>49.61</v>
       </c>
       <c r="F96" t="s">
         <v>71</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H96" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="I96">
-        <v>39.64</v>
+        <v>39.22</v>
       </c>
       <c r="J96">
-        <v>-78.78</v>
+        <v>-78.11</v>
       </c>
       <c r="K96">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="L96">
-        <v>148</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D97" s="1">
-        <v>2875000</v>
-      </c>
-      <c r="E97">
-        <v>6</v>
+        <v>339900</v>
+      </c>
+      <c r="E97" s="2">
+        <v>52.76</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="H97" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="I97">
-        <v>38.78</v>
+        <v>39.914999999999999</v>
       </c>
       <c r="J97">
-        <v>-77.349999999999994</v>
+        <v>-77.802000000000007</v>
       </c>
       <c r="K97">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="L97">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D98" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E98">
-        <v>15.36</v>
+        <v>349000</v>
+      </c>
+      <c r="E98" s="2">
+        <v>82</v>
       </c>
       <c r="F98" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="I98">
-        <v>38.774999999999999</v>
+        <v>39.652000000000001</v>
       </c>
       <c r="J98">
-        <v>-77.36</v>
+        <v>-78.760999999999996</v>
       </c>
       <c r="K98">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="L98">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D99" s="1">
-        <v>1850000</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
+        <v>749000</v>
+      </c>
+      <c r="E99" s="2">
+        <v>235.87</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="I99">
-        <v>38.770000000000003</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="J99">
-        <v>-77.37</v>
+        <v>-78.7</v>
       </c>
       <c r="K99">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="L99">
-        <v>28</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B100" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D100" s="1">
-        <v>2875000</v>
-      </c>
-      <c r="E100">
-        <v>6</v>
+        <v>780000</v>
+      </c>
+      <c r="E100" s="2">
+        <v>260</v>
       </c>
       <c r="F100" t="s">
+        <v>48</v>
+      </c>
+      <c r="G100">
         <v>15</v>
       </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
       <c r="H100" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="I100">
-        <v>38.765000000000001</v>
+        <v>39.5</v>
       </c>
       <c r="J100">
-        <v>-77.38</v>
+        <v>-79.05</v>
       </c>
       <c r="K100">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="L100">
-        <v>30</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L100">
+    <sortCondition ref="E2:E100"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>